--- a/output/Unknown Subjects.xlsx
+++ b/output/Unknown Subjects.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,376 +380,736 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CP181000</t>
+          <t>CP180724</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Education services (COICOP 10) &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Other services in respect of personal transport equipment (S)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CP180900</t>
+          <t>CP180610</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Medicines and health products</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CP181100</t>
+          <t>CP180452</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Restaurants and accommodation services (COICOP 11) &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Gas (ND)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CP181300</t>
+          <t>CP180910</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Personal care, social protection, miscellaneous goods &amp; services (COICOP 13 &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Recreational durables</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CP180800</t>
+          <t>CP180721</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Information and communication (COICOP 08) &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Parts and accessories for personal transport equipment (SD)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CP180100</t>
+          <t>CP180620</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Out-patient services</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CP180722</t>
+          <t>CP180530</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Fuels and lubricants for personal transport equipment (ND)</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Household appliances</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CP180200</t>
+          <t>CP180310</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Alcoholic beverages, tobacco and narcotics (COICOP 02) &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Clothing and footwear (COICOP 03) &gt; Clothing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CP18ALTT</t>
+          <t>CP180432</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; All items &gt; All items</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Services for the maintenance, repair and security of the dwelling (S)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CP180440</t>
+          <t>CP180116</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Water supply and miscellaneous services relating to the dwelling</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Fruits and nuts (ND)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CP180400</t>
+          <t>CP180451</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Electricity (ND)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CP180450</t>
+          <t>CP180520</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Electricity, gas and other fuels</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Household textiles</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CP180430</t>
+          <t>CP180431</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Maintenance, repairs &amp; security of the dwellings</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Security equipment &amp; materials for maintenance &amp; repair of dwellings (ND)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CP180500</t>
+          <t>CP180230</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Alcoholic beverages, tobacco and narcotics (COICOP 02) &gt; Tobacco</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CP180410</t>
+          <t>CP180560</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Actual rentals for housing</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Goods and services for routine household maintenance</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CP180700</t>
+          <t>CP180210</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Alcoholic beverages, tobacco and narcotics (COICOP 02) &gt; Alcoholic beverages</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CP180600</t>
+          <t>CP180320</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Clothing and footwear (COICOP 03) &gt; Footwear</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CP18GREN</t>
+          <t>CP180118</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; OECD Groups &gt; Energy</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Sugar, confectionery and desserts (ND)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CP18GRLE</t>
+          <t>CP180115</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; OECD Groups &gt; All items non-food non-energy</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Oils and fats (ND)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CP18GRH2</t>
+          <t>CP180510</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; OECD Groups &gt; Housing excluding imputed rentals for housing</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Furniture, furnishings, and loose carpets</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CP18GRL2</t>
+          <t>CP180120</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; OECD Groups &gt; Services less housing (Housing excluding imputed rentals for housing)</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Non-Alcoholic beverages</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CP18GRGO</t>
+          <t>CP180540</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; OECD Groups &gt; CPI Goods</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Glassware, tableware and household utensils</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CP18GRSE</t>
+          <t>CP180940</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; OECD Groups &gt; Services</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Recreational services</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CP181200</t>
+          <t>CP180830</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Insurance and financial services (COICOP 12) &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Information and communication (COICOP 08) &gt; Information and communication services</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CP180300</t>
+          <t>CP180720</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; COICOP 2018 &gt; Clothing and footwear (COICOP 03) &gt; Total</t>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Operation of personal transport equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CP180710</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Purchase of vehicles</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CP180630</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Inpatient care services</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CP181110</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Restaurants and accommodation services (COICOP 11) &gt; Food and beverage serving services</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CP181220</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Insurance and financial services (COICOP 12) &gt; Financial services</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CP181330</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Personal care, social protection, miscellaneous goods &amp; services (COICOP 13 &gt; Social protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CP180113</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Fish and other seafood (ND)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CP180970</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Newspapers, books and stationery</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CP180119</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Ready-made food and other food products n.e.c. (ND)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CP181210</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Insurance and financial services (COICOP 12) &gt; Insurance</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CP181310</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Personal care, social protection, miscellaneous goods &amp; services (COICOP 13 &gt; Personal care</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CP180640</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Other health services</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CP180930</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Garden products and pets</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CP181120</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Restaurants and accommodation services (COICOP 11) &gt; Accommodation services</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CP180960</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Cultural services</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CP180980</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Package holidays</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CP180723</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Maintenance and repair of personal transport equipment (S)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CP180810</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Information and communication (COICOP 08) &gt; Information and communication equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CP180111</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Cereals and cereal products (ND)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CP180730</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Passenger transport services</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CP181320</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Personal care, social protection, miscellaneous goods &amp; services (COICOP 13 &gt; Other personal effects</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CP180117</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Vegetables, tubers, plantains, cooking bananas and pulses (ND)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CP180114</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Milk, other dairy products and eggs (ND)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CP180112</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Live animals, meat and other parts of slaughtered land animals (ND)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CP180110</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Food</t>
         </is>
       </c>
     </row>
